--- a/biology/Zoologie/Bruant_des_roseaux/Bruant_des_roseaux.xlsx
+++ b/biology/Zoologie/Bruant_des_roseaux/Bruant_des_roseaux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Bruant des roseaux (Emberiza schoeniclus) est une espèce de passereaux européens de la famille des embérizidés et l'une des 44 espèces du genre Emberiza connues à ce jour. 
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>C'est un passereau de 15 à 16 cm de long, pesant 16 à 25 g.
 En plumage nuptial, le mâle a la tête et la gorge noires séparées par des moustaches blanches et entourées d'un collier blanc, le dessous blanc gris strié verticalement de brun foncé et le manteau sombre avec des stries verticales chamois. En automne, son plumage devient semblable à celui de la femelle, plus terne à dominance brun et gris.</t>
@@ -544,13 +558,15 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alimentation
-Il recherche sa nourriture parmi les formations herbacées, entre les touffes de carex, dans les champs et les prés, sur les bords des lacs et des étangs. Souvent aussi, il grappille dans les feuillages, sur les tiges de roseaux et sur diverses graminées. Parfois même, il attrape des insectes au vol, au ras du sol ou de l’eau.
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il recherche sa nourriture parmi les formations herbacées, entre les touffes de carex, dans les champs et les prés, sur les bords des lacs et des étangs. Souvent aussi, il grappille dans les feuillages, sur les tiges de roseaux et sur diverses graminées. Parfois même, il attrape des insectes au vol, au ras du sol ou de l’eau.
 Au printemps, il est surtout granivore (Phragmites, Molinia, Festuca) et durant l’été, il est plutôt insectivore (chenilles, papillons, diptères, coléoptères, libellules, nèpes) (Géroudet 1964).
 On a également trouvé des limaces et des crustacés de petite taille dans son estomac (Verheyen R.).
-Reproduction
-Les bruants des roseaux peuvent se reproduire à partir d'un an. En période nuptiale, Le mâle chante d'un endroit dégagé. Son pépiement est un bref trille monotone, répété et perçant (« bruant » est une altération de « bruyant »). 
-Le nid est généralement situé près des étangs, des marais, des lacs ou dans des champs, caché dans une touffe d'herbe ou au milieu des buissons. Il est constitué de feuilles de phragmites et de laîches. Le fond est garni d'éléments végétaux fins, de poils et de crin. La femelle pond quatre ou cinq œufs gris brun ou brun fauve clair tachetés. L'incubation dure treize à quatorze jours et les oisillons, nidicoles, prennent leur essor après deux semaines, au plus tard. Ce bruant peut mener à bien une seconde couvée dans l'année.
 </t>
         </is>
       </c>
@@ -576,18 +592,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Répartition et habitat</t>
+          <t>Comportement</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Répartition
-Le bruant des roseaux se rencontre dans toute l'Europe et en Asie excepté l'Asie du Sud et l'Asie du Sud-Est. Il est sédentaire dans l'Europe de l'Ouest et dans le sud de l'Europe de l'Est.
-Habitat
-Dans les zones humides avec des roseaux (phragmitaies), joncs, et saules.
-Pendant la saison de reproduction on le trouve principalement dans les espaces humides. Mais avec les disparitions des roselières et des marais, il vient nicher dans les champs de céréales et de colza et les plantations de conifères.
-Migration
-Les migrateurs se trouvent dans les campagnes cultivées. Ceux d'Europe du Nord et de l'est migrent vers l'Espagne en octobre-novembre.
+          <t>Reproduction</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les bruants des roseaux peuvent se reproduire à partir d'un an. En période nuptiale, Le mâle chante d'un endroit dégagé. Son pépiement est un bref trille monotone, répété et perçant (« bruant » est une altération de « bruyant »). 
+Le nid est généralement situé près des étangs, des marais, des lacs ou dans des champs, caché dans une touffe d'herbe ou au milieu des buissons. Il est constitué de feuilles de phragmites et de laîches. Le fond est garni d'éléments végétaux fins, de poils et de crin. La femelle pond quatre ou cinq œufs gris brun ou brun fauve clair tachetés. L'incubation dure treize à quatorze jours et les oisillons, nidicoles, prennent leur essor après deux semaines, au plus tard. Ce bruant peut mener à bien une seconde couvée dans l'année.
 </t>
         </is>
       </c>
@@ -613,19 +630,248 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Répartition et habitat</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bruant des roseaux se rencontre dans toute l'Europe et en Asie excepté l'Asie du Sud et l'Asie du Sud-Est. Il est sédentaire dans l'Europe de l'Ouest et dans le sud de l'Europe de l'Est.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bruant_des_roseaux</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bruant_des_roseaux</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Répartition et habitat</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans les zones humides avec des roseaux (phragmitaies), joncs, et saules.
+Pendant la saison de reproduction on le trouve principalement dans les espaces humides. Mais avec les disparitions des roselières et des marais, il vient nicher dans les champs de céréales et de colza et les plantations de conifères.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bruant_des_roseaux</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bruant_des_roseaux</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Répartition et habitat</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Migration</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les migrateurs se trouvent dans les campagnes cultivées. Ceux d'Europe du Nord et de l'est migrent vers l'Espagne en octobre-novembre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Bruant_des_roseaux</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bruant_des_roseaux</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Historique et dénomination
-L'espèce Emberiza schoeniclus a été décrite par le naturaliste suédois Carl von Linné en 1758, sous le nom initial de Fringilla schoeniclus[1].
-Synonyme
-Fringilla schoeniclus Linnaeus, 1758
-Sous-espèces
-Le Bruant des roseaux compte quinze sous-espèces, décrites surtout d’après les variations géographiques affectant la forme et la grosseur du bec. Dans le sud et le sud-est, les oiseaux à gros bec ont été distingués autrefois comme espèce sous le nom de « Bruant pyrrhuloïde » (à bec de Bouvreuil). Les sous-espèces sont classées en trois groupes selon Vaurie (1959).
-Groupe schoeniclus
-Ce groupe comprend les sous-espèces de stature plus petite au manteau fortement ou en tout cas nettement strié et au bec petit et mince.
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Historique et dénomination</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Emberiza schoeniclus a été décrite par le naturaliste suédois Carl von Linné en 1758, sous le nom initial de Fringilla schoeniclus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Bruant_des_roseaux</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bruant_des_roseaux</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Historique et dénomination</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Synonyme</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Fringilla schoeniclus Linnaeus, 1758</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Bruant_des_roseaux</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bruant_des_roseaux</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Bruant des roseaux compte quinze sous-espèces, décrites surtout d’après les variations géographiques affectant la forme et la grosseur du bec. Dans le sud et le sud-est, les oiseaux à gros bec ont été distingués autrefois comme espèce sous le nom de « Bruant pyrrhuloïde » (à bec de Bouvreuil). Les sous-espèces sont classées en trois groupes selon Vaurie (1959).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Bruant_des_roseaux</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bruant_des_roseaux</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Groupe schoeniclus</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Ce groupe comprend les sous-espèces de stature plus petite au manteau fortement ou en tout cas nettement strié et au bec petit et mince.
 1a. E. s. schoeniclus L.
 Ce sous-groupe réunit les sous-espèces européennes décrites sous les noms de turonensis Steinbacher, mackenziei Bird et steinbacheri Dementiev.
 1b. E. s. passerina Pallas
@@ -639,17 +885,93 @@
 1f. E. s. pallidior Hartert
 Sous-espèce nicheuse de l’ouest de la Sibérie. On la considère comme intermédiaire entre 1b et 2a. Migratrice.
 1g. E. s. ukrainae (Zarudny)
-Sous-espèce du nord-est de l’Ukraine. Migratrice, elle se classe du point de vue morphologique entre 1a et 3b.
-Groupe pyrruloides
-Ce groupe comprend les sous-espèces de stature plus grande, mais au manteau moins fortement strié que le précédent et d’un ton plus pâle. Le bec est nettement plus grand, épais, enflé et arqué.
+Sous-espèce du nord-est de l’Ukraine. Migratrice, elle se classe du point de vue morphologique entre 1a et 3b.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Bruant_des_roseaux</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bruant_des_roseaux</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Groupe pyrruloides</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Ce groupe comprend les sous-espèces de stature plus grande, mais au manteau moins fortement strié que le précédent et d’un ton plus pâle. Le bec est nettement plus grand, épais, enflé et arqué.
 2a. E. s. incognita (Zarudny)
 Sous-espèce migratrice. Signalé au nord de la steppe de Kirghiz. Revêt une forme intermédiaire entre 1g, 1f et 2b.
 2b. E. s. pyrrhuloides Palla
 Aire de reproduction se situant entre la région septentrionale de la Mer Caspienne, en Kazakhie, en Kirghizie et au Xinjiang occidental. Soit migratrice, sédentaire ou erratique.
 2c. E. s. zaidamensis Portenko
-Sa présence se limite à la dépression du Zaidam (nord du Qinghai). On ignore si elle est migratrice ou si elle constitue une population isolée.
-Groupe intermédiaire
-Ce groupe est composé des sous-espèces intermédiaires entre les deux autres. Habituellement foncées et bien rayées, elles sont toujours plus sombres que celles du groupe pyrrhuloides. Le bec est relativement grand et épouse une forme non enflée, beaucoup moins arquée qu’en 2.
+Sa présence se limite à la dépression du Zaidam (nord du Qinghai). On ignore si elle est migratrice ou si elle constitue une population isolée.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Bruant_des_roseaux</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bruant_des_roseaux</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Groupe intermédiaire</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Ce groupe est composé des sous-espèces intermédiaires entre les deux autres. Habituellement foncées et bien rayées, elles sont toujours plus sombres que celles du groupe pyrrhuloides. Le bec est relativement grand et épouse une forme non enflée, beaucoup moins arquée qu’en 2.
 3a. E. s. witherbyi Jordans
 Sous-espèce nicheuse au Portugal, sur les côtes Sud de l’Espagne et de la France, aux Baléares et en Sardaigne. Certains auteurs admettent qu’elle niche également en Corse (Bruun 1970), tandis que d’autres excluent la Sardaigne (Makatsch 1966 ; Minton 1971). Niche-t-elle également en Afrique du Nord ? Des couples cantonnés ont été découverts dans le Gharb, au nord-ouest du Maroc, en juin 1942 (Heim de Balzac et Mayaud 1962).
 3b. E. s. intermedia Degland
@@ -663,37 +985,77 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Bruant_des_roseaux</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Bruant_des_roseaux</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Bruant_des_roseaux</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bruant_des_roseaux</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Le Bruant des roseaux et l'Homme</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Protection
-L'UICN-France classe le Bruant des roseaux (Emberiza schoeniclus) "EN" (haut risque d'extinction dans la nature) en France, alors qu'il est classé "LC" (préoccupation mineure).
-Il bénéficie donc d'une protection totale sur le territoire français depuis l'arrêté ministériel du 17 avril 1981 relatif aux oiseaux protégés sur l'ensemble du territoire[2]. Il est donc interdit de le détruire, le mutiler, le capturer ou l'enlever, de le perturber intentionnellement ou de le naturaliser, ainsi que de détruire ou enlever les œufs et les nids, et de détruire, altérer ou dégrader son milieu. Qu'il soit vivant ou mort, il est aussi interdit de le transporter, colporter, de l'utiliser, de le détenir, de le vendre ou de l'acheter.
-Bandes sons et sonagrammes
-Audioblog de Sonatura Emberiza schoeniclus</t>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'UICN-France classe le Bruant des roseaux (Emberiza schoeniclus) "EN" (haut risque d'extinction dans la nature) en France, alors qu'il est classé "LC" (préoccupation mineure).
+Il bénéficie donc d'une protection totale sur le territoire français depuis l'arrêté ministériel du 17 avril 1981 relatif aux oiseaux protégés sur l'ensemble du territoire. Il est donc interdit de le détruire, le mutiler, le capturer ou l'enlever, de le perturber intentionnellement ou de le naturaliser, ainsi que de détruire ou enlever les œufs et les nids, et de détruire, altérer ou dégrader son milieu. Qu'il soit vivant ou mort, il est aussi interdit de le transporter, colporter, de l'utiliser, de le détenir, de le vendre ou de l'acheter.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Bruant_des_roseaux</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bruant_des_roseaux</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Le Bruant des roseaux et l'Homme</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Bandes sons et sonagrammes</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Audioblog de Sonatura Emberiza schoeniclus</t>
         </is>
       </c>
     </row>
